--- a/regionseng/6/industry/industry.xlsx
+++ b/regionseng/6/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -153,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +189,15 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +513,7 @@
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +531,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -563,8 +578,14 @@
       <c r="P2" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -613,8 +634,14 @@
       <c r="P3" s="16">
         <v>1396.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="16">
+        <v>2791.4</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -663,8 +690,14 @@
       <c r="P4" s="16">
         <v>1394.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="16">
+        <v>2349.1</v>
+      </c>
+      <c r="R4" s="19">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -713,8 +746,14 @@
       <c r="P5" s="10">
         <v>16717</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10">
+        <v>17185</v>
+      </c>
+      <c r="R5" s="20">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -763,8 +802,14 @@
       <c r="P6" s="10">
         <v>15969</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10">
+        <v>16565</v>
+      </c>
+      <c r="R6" s="20">
+        <v>16237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -813,8 +858,14 @@
       <c r="P7" s="16">
         <v>1085.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="16">
+        <v>1289.4000000000001</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1745.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -863,8 +914,14 @@
       <c r="P8" s="16">
         <v>916.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="16">
+        <v>1551.1</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1629.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -913,8 +970,14 @@
       <c r="P9" s="16">
         <v>215.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="16">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="R9" s="19">
+        <v>348.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -963,8 +1026,14 @@
       <c r="P10" s="16">
         <v>477.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="16">
+        <v>798</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1081.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1082,14 @@
       <c r="P11" s="16">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="16">
+        <v>49.7</v>
+      </c>
+      <c r="R11" s="19">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1063,8 +1138,14 @@
       <c r="P12" s="16">
         <v>919.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="16">
+        <v>2177</v>
+      </c>
+      <c r="R12" s="19">
+        <v>2452.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>

--- a/regionseng/6/industry/industry.xlsx
+++ b/regionseng/6/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +513,7 @@
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -584,8 +584,11 @@
       <c r="R2" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -640,8 +643,11 @@
       <c r="R3" s="19">
         <v>3325</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="19">
+        <v>2221.1999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -696,8 +702,11 @@
       <c r="R4" s="19">
         <v>2711</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="19">
+        <v>1940.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -752,8 +761,11 @@
       <c r="R5" s="20">
         <v>16862</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="20">
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -808,8 +820,11 @@
       <c r="R6" s="20">
         <v>16237</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="20">
+        <v>16329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -864,8 +879,11 @@
       <c r="R7" s="19">
         <v>1745.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="19">
+        <v>1378.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -920,8 +938,11 @@
       <c r="R8" s="19">
         <v>1629.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="19">
+        <v>1499.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -976,8 +997,11 @@
       <c r="R9" s="19">
         <v>348.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1032,8 +1056,11 @@
       <c r="R10" s="19">
         <v>1081.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="19">
+        <v>441.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1115,11 @@
       <c r="R11" s="19">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="19">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1174,11 @@
       <c r="R12" s="19">
         <v>2452.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="19">
+        <v>2011.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
